--- a/2021/county_councils.xlsx
+++ b/2021/county_councils.xlsx
@@ -82,30 +82,30 @@
     <t>Somerset County Council</t>
   </si>
   <si>
+    <t>Cambridgeshire County Council</t>
+  </si>
+  <si>
+    <t>Suffolk County Council</t>
+  </si>
+  <si>
+    <t>Kent County Council</t>
+  </si>
+  <si>
+    <t>Hampshire County Council</t>
+  </si>
+  <si>
+    <t>Hertfordshire County Council</t>
+  </si>
+  <si>
+    <t>Surrey County Council</t>
+  </si>
+  <si>
+    <t>Leicestershire County Council</t>
+  </si>
+  <si>
     <t>North Yorkshire County Council</t>
   </si>
   <si>
-    <t>Cambridgeshire County Council</t>
-  </si>
-  <si>
-    <t>Suffolk County Council</t>
-  </si>
-  <si>
-    <t>Kent County Council</t>
-  </si>
-  <si>
-    <t>Hampshire County Council</t>
-  </si>
-  <si>
-    <t>Hertfordshire County Council</t>
-  </si>
-  <si>
-    <t>Surrey County Council</t>
-  </si>
-  <si>
-    <t>Leicestershire County Council</t>
-  </si>
-  <si>
     <t>Devon County Council</t>
   </si>
   <si>
@@ -154,30 +154,30 @@
     <t>SOM</t>
   </si>
   <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>SFK</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>HRT</t>
+  </si>
+  <si>
+    <t>SRY</t>
+  </si>
+  <si>
+    <t>LEC</t>
+  </si>
+  <si>
     <t>NYK</t>
   </si>
   <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>SFK</t>
-  </si>
-  <si>
-    <t>KEN</t>
-  </si>
-  <si>
-    <t>HAM</t>
-  </si>
-  <si>
-    <t>HRT</t>
-  </si>
-  <si>
-    <t>SRY</t>
-  </si>
-  <si>
-    <t>LEC</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
@@ -235,16 +235,16 @@
     <t>South West</t>
   </si>
   <si>
+    <t>East of England</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
     <t>Yorkshire and The Humber</t>
-  </si>
-  <si>
-    <t>East of England</t>
-  </si>
-  <si>
-    <t>South East</t>
-  </si>
-  <si>
-    <t>East Midlands</t>
   </si>
   <si>
     <t>West Midlands</t>
@@ -749,34 +749,34 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <v>0.6190476190476191</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F3">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
         <v>0.6</v>
-      </c>
-      <c r="H3">
-        <v>0.7</v>
       </c>
       <c r="I3">
         <v>0.8</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N3">
-        <v>0.5720238095238095</v>
+        <v>0.5660714285714286</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -805,46 +805,46 @@
         <v>47</v>
       </c>
       <c r="E4">
-        <v>0.5238095238095238</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
         <v>0.8</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
         <v>0.8</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
-        <v>0.5660714285714286</v>
+        <v>0.5378571428571429</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -861,10 +861,10 @@
         <v>48</v>
       </c>
       <c r="E5">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G5">
         <v>0.8</v>
@@ -873,28 +873,28 @@
         <v>0.7</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0.5</v>
       </c>
       <c r="N5">
-        <v>0.5378571428571429</v>
+        <v>0.5347619047619048</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
         <v>74</v>
@@ -920,10 +920,10 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="F6">
-        <v>0.5555555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H6">
         <v>0.7</v>
@@ -932,19 +932,19 @@
         <v>0.6</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>0.5</v>
       </c>
       <c r="N6">
-        <v>0.5347619047619048</v>
+        <v>0.5339285714285714</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -953,7 +953,7 @@
         <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s">
         <v>79</v>
@@ -973,34 +973,34 @@
         <v>50</v>
       </c>
       <c r="E7">
-        <v>0.4761904761904762</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F7">
-        <v>0.8333333333333334</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H7">
         <v>0.7</v>
       </c>
       <c r="I7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N7">
-        <v>0.5339285714285714</v>
+        <v>0.5020238095238094</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1009,7 +1009,7 @@
         <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
         <v>79</v>
@@ -1029,34 +1029,34 @@
         <v>51</v>
       </c>
       <c r="E8">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F8">
-        <v>0.6111111111111112</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M8">
         <v>0.25</v>
       </c>
       <c r="N8">
-        <v>0.5020238095238094</v>
+        <v>0.4841666666666667</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -1085,40 +1085,40 @@
         <v>52</v>
       </c>
       <c r="E9">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="F9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F9">
-        <v>0.9444444444444444</v>
-      </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
+        <v>0.75</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.4</v>
+      </c>
+      <c r="M9">
         <v>0.5</v>
       </c>
-      <c r="I9">
-        <v>0.6</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.6</v>
-      </c>
-      <c r="M9">
-        <v>0.25</v>
-      </c>
       <c r="N9">
-        <v>0.4841666666666667</v>
+        <v>0.4767857142857144</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
         <v>75</v>
@@ -1141,37 +1141,37 @@
         <v>53</v>
       </c>
       <c r="E10">
-        <v>0.4285714285714285</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G10">
         <v>0.8</v>
       </c>
       <c r="H10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I10">
+        <v>0.4</v>
+      </c>
+      <c r="J10">
+        <v>0.25</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
+      <c r="L10">
         <v>0.8</v>
-      </c>
-      <c r="J10">
-        <v>0.75</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.4</v>
       </c>
       <c r="M10">
         <v>0.5</v>
       </c>
       <c r="N10">
-        <v>0.4767857142857144</v>
+        <v>0.474404761904762</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>69</v>
@@ -1289,7 +1289,7 @@
         <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s">
         <v>80</v>
@@ -1401,7 +1401,7 @@
         <v>69</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s">
         <v>79</v>
@@ -1513,7 +1513,7 @@
         <v>71</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s">
         <v>79</v>
@@ -1737,7 +1737,7 @@
         <v>71</v>
       </c>
       <c r="Q20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s">
         <v>79</v>
@@ -1793,7 +1793,7 @@
         <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s">
         <v>79</v>
@@ -1905,7 +1905,7 @@
         <v>70</v>
       </c>
       <c r="Q23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s">
         <v>79</v>
@@ -1961,7 +1961,7 @@
         <v>71</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s">
         <v>79</v>

--- a/2021/county_councils.xlsx
+++ b/2021/county_councils.xlsx
@@ -97,15 +97,15 @@
     <t>Hertfordshire County Council</t>
   </si>
   <si>
+    <t>North Yorkshire County Council</t>
+  </si>
+  <si>
+    <t>Leicestershire County Council</t>
+  </si>
+  <si>
     <t>Surrey County Council</t>
   </si>
   <si>
-    <t>Leicestershire County Council</t>
-  </si>
-  <si>
-    <t>North Yorkshire County Council</t>
-  </si>
-  <si>
     <t>Devon County Council</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Worcestershire County Council</t>
   </si>
   <si>
+    <t>Derbyshire County Council</t>
+  </si>
+  <si>
     <t>East Sussex County Council</t>
   </si>
   <si>
-    <t>Derbyshire County Council</t>
-  </si>
-  <si>
     <t>West Sussex County Council</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>HRT</t>
   </si>
   <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>LEC</t>
+  </si>
+  <si>
     <t>SRY</t>
   </si>
   <si>
-    <t>LEC</t>
-  </si>
-  <si>
-    <t>NYK</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>WOR</t>
   </si>
   <si>
+    <t>DBY</t>
+  </si>
+  <si>
     <t>ESX</t>
   </si>
   <si>
-    <t>DBY</t>
-  </si>
-  <si>
     <t>WSX</t>
   </si>
   <si>
@@ -241,10 +241,10 @@
     <t>South East</t>
   </si>
   <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
+  <si>
     <t>East Midlands</t>
-  </si>
-  <si>
-    <t>Yorkshire and The Humber</t>
   </si>
   <si>
     <t>West Midlands</t>
@@ -702,7 +702,7 @@
         <v>0.6</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I2">
         <v>0.6</v>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.6314285714285715</v>
+        <v>0.6280952380952382</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>0.8</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I3">
         <v>0.8</v>
@@ -776,7 +776,7 @@
         <v>0.75</v>
       </c>
       <c r="N3">
-        <v>0.5660714285714286</v>
+        <v>0.5594047619047618</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -814,7 +814,7 @@
         <v>0.8</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I4">
         <v>0.8</v>
@@ -832,7 +832,7 @@
         <v>0.5</v>
       </c>
       <c r="N4">
-        <v>0.5378571428571429</v>
+        <v>0.5328571428571429</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>0.8</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5">
         <v>0.6</v>
@@ -888,7 +888,7 @@
         <v>0.5</v>
       </c>
       <c r="N5">
-        <v>0.5347619047619048</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>0.6</v>
       </c>
       <c r="H6">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I6">
         <v>0.6</v>
@@ -944,7 +944,7 @@
         <v>0.5</v>
       </c>
       <c r="N6">
-        <v>0.5339285714285714</v>
+        <v>0.5289285714285714</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>0.8</v>
       </c>
       <c r="H7">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I7">
         <v>0.4</v>
@@ -1000,7 +1000,7 @@
         <v>0.25</v>
       </c>
       <c r="N7">
-        <v>0.5020238095238094</v>
+        <v>0.4970238095238095</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1029,43 +1029,43 @@
         <v>51</v>
       </c>
       <c r="E8">
-        <v>0.3333333333333333</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F8">
-        <v>0.9444444444444444</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I8">
         <v>0.4</v>
       </c>
-      <c r="H8">
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+      <c r="K8">
+        <v>0.2</v>
+      </c>
+      <c r="L8">
+        <v>0.8</v>
+      </c>
+      <c r="M8">
         <v>0.5</v>
       </c>
-      <c r="I8">
-        <v>0.6</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.6</v>
-      </c>
-      <c r="M8">
-        <v>0.25</v>
-      </c>
       <c r="N8">
-        <v>0.4841666666666667</v>
+        <v>0.484404761904762</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s">
         <v>79</v>
@@ -1094,7 +1094,7 @@
         <v>0.8</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I9">
         <v>0.8</v>
@@ -1112,7 +1112,7 @@
         <v>0.5</v>
       </c>
       <c r="N9">
-        <v>0.4767857142857144</v>
+        <v>0.483452380952381</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s">
         <v>79</v>
@@ -1141,43 +1141,43 @@
         <v>53</v>
       </c>
       <c r="E10">
-        <v>0.5238095238095238</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F10">
-        <v>0.05555555555555555</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H10">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I10">
         <v>0.6</v>
       </c>
-      <c r="I10">
-        <v>0.4</v>
-      </c>
       <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.6</v>
+      </c>
+      <c r="M10">
         <v>0.25</v>
       </c>
-      <c r="K10">
-        <v>0.2</v>
-      </c>
-      <c r="L10">
-        <v>0.8</v>
-      </c>
-      <c r="M10">
-        <v>0.5</v>
-      </c>
       <c r="N10">
-        <v>0.474404761904762</v>
+        <v>0.4758333333333333</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
         <v>79</v>
@@ -1206,7 +1206,7 @@
         <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I11">
         <v>0.4</v>
@@ -1224,7 +1224,7 @@
         <v>0.75</v>
       </c>
       <c r="N11">
-        <v>0.4696428571428571</v>
+        <v>0.4679761904761905</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>0.4</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I12">
         <v>0.4</v>
@@ -1280,7 +1280,7 @@
         <v>0.25</v>
       </c>
       <c r="N12">
-        <v>0.4180952380952381</v>
+        <v>0.4264285714285714</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -1318,7 +1318,7 @@
         <v>0.4</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I13">
         <v>0.8</v>
@@ -1336,7 +1336,7 @@
         <v>0.5</v>
       </c>
       <c r="N13">
-        <v>0.4138095238095239</v>
+        <v>0.4038095238095239</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1365,43 +1365,43 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>0.4285714285714285</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F14">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G14">
+        <v>0.4</v>
+      </c>
+      <c r="H14">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I14">
         <v>0.6</v>
       </c>
-      <c r="H14">
-        <v>0.4</v>
-      </c>
-      <c r="I14">
-        <v>0.8</v>
-      </c>
       <c r="J14">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M14">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3859523809523809</v>
+        <v>0.3821428571428572</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
         <v>79</v>
@@ -1421,43 +1421,43 @@
         <v>58</v>
       </c>
       <c r="E15">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F15">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G15">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N15">
-        <v>0.3754761904761905</v>
+        <v>0.3759523809523809</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s">
         <v>79</v>
@@ -1486,7 +1486,7 @@
         <v>0.4</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I16">
         <v>0.4</v>
@@ -1504,7 +1504,7 @@
         <v>0.25</v>
       </c>
       <c r="N16">
-        <v>0.3552380952380953</v>
+        <v>0.3469047619047619</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -1542,7 +1542,7 @@
         <v>0.6</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I17">
         <v>0.4</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3354761904761905</v>
+        <v>0.3288095238095238</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>0.4</v>
       </c>
       <c r="H18">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I18">
         <v>0.2</v>
@@ -1616,7 +1616,7 @@
         <v>0.25</v>
       </c>
       <c r="N18">
-        <v>0.2558333333333334</v>
+        <v>0.2508333333333334</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -1654,7 +1654,7 @@
         <v>0.2</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I19">
         <v>0.2</v>
@@ -1672,7 +1672,7 @@
         <v>0.25</v>
       </c>
       <c r="N19">
-        <v>0.2528571428571429</v>
+        <v>0.2445238095238095</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -1710,7 +1710,7 @@
         <v>0.4</v>
       </c>
       <c r="H20">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I20">
         <v>0.2</v>
@@ -1728,7 +1728,7 @@
         <v>0.25</v>
       </c>
       <c r="N20">
-        <v>0.2069047619047619</v>
+        <v>0.1952380952380953</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>71</v>
       </c>
       <c r="Q20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s">
         <v>79</v>
@@ -1766,7 +1766,7 @@
         <v>0.2</v>
       </c>
       <c r="H21">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I21">
         <v>0.2</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.1872619047619048</v>
+        <v>0.1922619047619047</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s">
         <v>79</v>
@@ -1822,7 +1822,7 @@
         <v>0.6</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.1521428571428571</v>
+        <v>0.1554761904761905</v>
       </c>
       <c r="O22">
         <v>1</v>
